--- a/data/trans_dic/P16A20_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16A20_2023-Clase-trans_dic.xlsx
@@ -40,7 +40,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -53,34 +53,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -513,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,21 +501,12 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="14" customWidth="1" min="6" max="6"/>
-    <col width="14" customWidth="1" min="7" max="7"/>
-    <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para la alteración del tiroides en las últimas 2 semanas (tasa de respuesta: 99,91%)</t>
+          <t>Población que ha consumido medicamentos para la alteración del tiroides en las últimas dos semanas (tasa de respuesta: 99,82%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -552,85 +515,31 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -642,15 +551,6 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
-      <c r="F3" s="2" t="n"/>
-      <c r="G3" s="2" t="n"/>
-      <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -664,39 +564,12 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0</v>
+        <v>0.01009290609989182</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0</v>
+        <v>0.08924430281850881</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5" t="n">
-        <v>0.01009290609989182</v>
-      </c>
-      <c r="G4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="5" t="n">
-        <v>0.08924430281850881</v>
-      </c>
-      <c r="K4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="5" t="n">
         <v>0.0472991805436804</v>
       </c>
     </row>
@@ -707,22 +580,13 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
-      <c r="F5" s="5" t="n">
+      <c r="C5" s="5" t="n">
         <v>0.004191291061191624</v>
       </c>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="n">
+      <c r="D5" s="5" t="n">
         <v>0.06779854540834546</v>
       </c>
-      <c r="K5" s="5" t="inlineStr"/>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
-      <c r="N5" s="5" t="n">
+      <c r="E5" s="5" t="n">
         <v>0.03670613084418562</v>
       </c>
     </row>
@@ -733,22 +597,13 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="n">
+      <c r="C6" s="5" t="n">
         <v>0.02087129363955663</v>
       </c>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="n">
+      <c r="D6" s="5" t="n">
         <v>0.1134687434195905</v>
       </c>
-      <c r="K6" s="5" t="inlineStr"/>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="5" t="n">
+      <c r="E6" s="5" t="n">
         <v>0.06040000431935597</v>
       </c>
     </row>
@@ -764,39 +619,12 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0</v>
+        <v>0.01025982720589327</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0</v>
+        <v>0.0779285459873655</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5" t="n">
-        <v>0.01025982720589327</v>
-      </c>
-      <c r="G7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5" t="n">
-        <v>0.0779285459873655</v>
-      </c>
-      <c r="K7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="5" t="n">
         <v>0.04185179146607806</v>
       </c>
     </row>
@@ -807,22 +635,13 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="n">
+      <c r="C8" s="5" t="n">
         <v>0.003641826587352667</v>
       </c>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="n">
+      <c r="D8" s="5" t="n">
         <v>0.05936865035111424</v>
       </c>
-      <c r="K8" s="5" t="inlineStr"/>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
-      <c r="N8" s="5" t="n">
+      <c r="E8" s="5" t="n">
         <v>0.03112179362978654</v>
       </c>
     </row>
@@ -833,22 +652,13 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
-      <c r="F9" s="5" t="n">
+      <c r="C9" s="5" t="n">
         <v>0.02136724612196817</v>
       </c>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="n">
+      <c r="D9" s="5" t="n">
         <v>0.1008287204821801</v>
       </c>
-      <c r="K9" s="5" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="n">
+      <c r="E9" s="5" t="n">
         <v>0.05474563047749048</v>
       </c>
     </row>
@@ -864,39 +674,12 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0</v>
+        <v>0.005160188251912582</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0</v>
+        <v>0.09100631111765291</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5" t="n">
-        <v>0.005160188251912582</v>
-      </c>
-      <c r="G10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="5" t="n">
-        <v>0.09100631111765291</v>
-      </c>
-      <c r="K10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="5" t="n">
         <v>0.02958090616219883</v>
       </c>
     </row>
@@ -907,22 +690,13 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
-      <c r="F11" s="5" t="n">
+      <c r="C11" s="5" t="n">
         <v>0.001647645330379601</v>
       </c>
-      <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
-      <c r="J11" s="5" t="n">
+      <c r="D11" s="5" t="n">
         <v>0.06226716324225419</v>
       </c>
-      <c r="K11" s="5" t="inlineStr"/>
-      <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
-      <c r="N11" s="5" t="n">
+      <c r="E11" s="5" t="n">
         <v>0.02016125483047441</v>
       </c>
     </row>
@@ -933,22 +707,13 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
-      <c r="F12" s="5" t="n">
+      <c r="C12" s="5" t="n">
         <v>0.01537890054085975</v>
       </c>
-      <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
-      <c r="J12" s="5" t="n">
+      <c r="D12" s="5" t="n">
         <v>0.1297413174733568</v>
       </c>
-      <c r="K12" s="5" t="inlineStr"/>
-      <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
-      <c r="N12" s="5" t="n">
+      <c r="E12" s="5" t="n">
         <v>0.04265810960857193</v>
       </c>
     </row>
@@ -964,39 +729,12 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0</v>
+        <v>0.01603613450310068</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0</v>
+        <v>0.08688658941139266</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="5" t="n">
-        <v>0.01603613450310068</v>
-      </c>
-      <c r="G13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="5" t="n">
-        <v>0.08688658941139266</v>
-      </c>
-      <c r="K13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="5" t="n">
         <v>0.04663137732067628</v>
       </c>
     </row>
@@ -1007,22 +745,13 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="n">
+      <c r="C14" s="5" t="n">
         <v>0.009968771898354614</v>
       </c>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="n">
+      <c r="D14" s="5" t="n">
         <v>0.07148093972689008</v>
       </c>
-      <c r="K14" s="5" t="inlineStr"/>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="n">
+      <c r="E14" s="5" t="n">
         <v>0.03901911414793328</v>
       </c>
     </row>
@@ -1033,22 +762,13 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="n">
+      <c r="C15" s="5" t="n">
         <v>0.02477068024947313</v>
       </c>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
-      <c r="J15" s="5" t="n">
+      <c r="D15" s="5" t="n">
         <v>0.1045520388786403</v>
       </c>
-      <c r="K15" s="5" t="inlineStr"/>
-      <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
-      <c r="N15" s="5" t="n">
+      <c r="E15" s="5" t="n">
         <v>0.05546551118590703</v>
       </c>
     </row>
@@ -1064,39 +784,12 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0</v>
+        <v>0.01620335924197246</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0</v>
+        <v>0.08983540452729272</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="5" t="n">
-        <v>0.01620335924197246</v>
-      </c>
-      <c r="G16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="5" t="n">
-        <v>0.08983540452729272</v>
-      </c>
-      <c r="K16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="5" t="n">
         <v>0.05995385756274524</v>
       </c>
     </row>
@@ -1107,22 +800,13 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr"/>
-      <c r="D17" s="5" t="inlineStr"/>
-      <c r="E17" s="5" t="inlineStr"/>
-      <c r="F17" s="5" t="n">
+      <c r="C17" s="5" t="n">
         <v>0.008417039613505945</v>
       </c>
-      <c r="G17" s="5" t="inlineStr"/>
-      <c r="H17" s="5" t="inlineStr"/>
-      <c r="I17" s="5" t="inlineStr"/>
-      <c r="J17" s="5" t="n">
+      <c r="D17" s="5" t="n">
         <v>0.07597250575712035</v>
       </c>
-      <c r="K17" s="5" t="inlineStr"/>
-      <c r="L17" s="5" t="inlineStr"/>
-      <c r="M17" s="5" t="inlineStr"/>
-      <c r="N17" s="5" t="n">
+      <c r="E17" s="5" t="n">
         <v>0.05031472264419091</v>
       </c>
     </row>
@@ -1133,22 +817,13 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr"/>
-      <c r="D18" s="5" t="inlineStr"/>
-      <c r="E18" s="5" t="inlineStr"/>
-      <c r="F18" s="5" t="n">
+      <c r="C18" s="5" t="n">
         <v>0.03013020247918334</v>
       </c>
-      <c r="G18" s="5" t="inlineStr"/>
-      <c r="H18" s="5" t="inlineStr"/>
-      <c r="I18" s="5" t="inlineStr"/>
-      <c r="J18" s="5" t="n">
+      <c r="D18" s="5" t="n">
         <v>0.1075710868321878</v>
       </c>
-      <c r="K18" s="5" t="inlineStr"/>
-      <c r="L18" s="5" t="inlineStr"/>
-      <c r="M18" s="5" t="inlineStr"/>
-      <c r="N18" s="5" t="n">
+      <c r="E18" s="5" t="n">
         <v>0.07083901034408066</v>
       </c>
     </row>
@@ -1164,39 +839,12 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0</v>
+        <v>0.01429174713596657</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0</v>
+        <v>0.06724008143796059</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="5" t="n">
-        <v>0.01429174713596657</v>
-      </c>
-      <c r="G19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" s="5" t="n">
-        <v>0.06724008143796059</v>
-      </c>
-      <c r="K19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" s="5" t="n">
         <v>0.05560427754690232</v>
       </c>
     </row>
@@ -1207,22 +855,13 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr"/>
-      <c r="D20" s="5" t="inlineStr"/>
-      <c r="E20" s="5" t="inlineStr"/>
-      <c r="F20" s="5" t="n">
+      <c r="C20" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G20" s="5" t="inlineStr"/>
-      <c r="H20" s="5" t="inlineStr"/>
-      <c r="I20" s="5" t="inlineStr"/>
-      <c r="J20" s="5" t="n">
+      <c r="D20" s="5" t="n">
         <v>0.05379186832758486</v>
       </c>
-      <c r="K20" s="5" t="inlineStr"/>
-      <c r="L20" s="5" t="inlineStr"/>
-      <c r="M20" s="5" t="inlineStr"/>
-      <c r="N20" s="5" t="n">
+      <c r="E20" s="5" t="n">
         <v>0.04305499603095193</v>
       </c>
     </row>
@@ -1233,22 +872,13 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr"/>
-      <c r="D21" s="5" t="inlineStr"/>
-      <c r="E21" s="5" t="inlineStr"/>
-      <c r="F21" s="5" t="n">
+      <c r="C21" s="5" t="n">
         <v>0.06578364221562899</v>
       </c>
-      <c r="G21" s="5" t="inlineStr"/>
-      <c r="H21" s="5" t="inlineStr"/>
-      <c r="I21" s="5" t="inlineStr"/>
-      <c r="J21" s="5" t="n">
+      <c r="D21" s="5" t="n">
         <v>0.08553540752894197</v>
       </c>
-      <c r="K21" s="5" t="inlineStr"/>
-      <c r="L21" s="5" t="inlineStr"/>
-      <c r="M21" s="5" t="inlineStr"/>
-      <c r="N21" s="5" t="n">
+      <c r="E21" s="5" t="n">
         <v>0.07308258562861407</v>
       </c>
     </row>
@@ -1264,39 +894,12 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0</v>
+        <v>0.01269111172685022</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0</v>
+        <v>0.08249019502994043</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="5" t="n">
-        <v>0.01269111172685022</v>
-      </c>
-      <c r="G22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" s="5" t="n">
-        <v>0.08249019502994043</v>
-      </c>
-      <c r="K22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" s="5" t="n">
         <v>0.0485290902910203</v>
       </c>
     </row>
@@ -1307,22 +910,13 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C23" s="5" t="inlineStr"/>
-      <c r="D23" s="5" t="inlineStr"/>
-      <c r="E23" s="5" t="inlineStr"/>
-      <c r="F23" s="5" t="n">
+      <c r="C23" s="5" t="n">
         <v>0.009168929907496836</v>
       </c>
-      <c r="G23" s="5" t="inlineStr"/>
-      <c r="H23" s="5" t="inlineStr"/>
-      <c r="I23" s="5" t="inlineStr"/>
-      <c r="J23" s="5" t="n">
+      <c r="D23" s="5" t="n">
         <v>0.07456544711366427</v>
       </c>
-      <c r="K23" s="5" t="inlineStr"/>
-      <c r="L23" s="5" t="inlineStr"/>
-      <c r="M23" s="5" t="inlineStr"/>
-      <c r="N23" s="5" t="n">
+      <c r="E23" s="5" t="n">
         <v>0.04427008485609065</v>
       </c>
     </row>
@@ -1333,22 +927,13 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C24" s="5" t="inlineStr"/>
-      <c r="D24" s="5" t="inlineStr"/>
-      <c r="E24" s="5" t="inlineStr"/>
-      <c r="F24" s="5" t="n">
+      <c r="C24" s="5" t="n">
         <v>0.01709577276493854</v>
       </c>
-      <c r="G24" s="5" t="inlineStr"/>
-      <c r="H24" s="5" t="inlineStr"/>
-      <c r="I24" s="5" t="inlineStr"/>
-      <c r="J24" s="5" t="n">
+      <c r="D24" s="5" t="n">
         <v>0.09036572544677071</v>
       </c>
-      <c r="K24" s="5" t="inlineStr"/>
-      <c r="L24" s="5" t="inlineStr"/>
-      <c r="M24" s="5" t="inlineStr"/>
-      <c r="N24" s="5" t="n">
+      <c r="E24" s="5" t="n">
         <v>0.05315633427003806</v>
       </c>
     </row>
@@ -1360,16 +945,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="8">
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="A13:A15"/>
   </mergeCells>
@@ -1383,7 +965,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1399,21 +981,12 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="14" customWidth="1" min="6" max="6"/>
-    <col width="14" customWidth="1" min="7" max="7"/>
-    <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para la alteración del tiroides en las últimas 2 semanas (tasa de respuesta: 99,91%)</t>
+          <t>Población que ha consumido medicamentos para la alteración del tiroides en las últimas dos semanas (tasa de respuesta: 99,82%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1422,85 +995,31 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -1512,15 +1031,6 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
-      <c r="F3" s="2" t="n"/>
-      <c r="G3" s="2" t="n"/>
-      <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1534,39 +1044,12 @@
         </is>
       </c>
       <c r="C4" s="6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="G4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6" t="n">
-        <v>63</v>
-      </c>
-      <c r="K4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="6" t="n">
         <v>70</v>
       </c>
     </row>
@@ -1578,39 +1061,12 @@
         </is>
       </c>
       <c r="C5" s="6" t="n">
-        <v>0</v>
+        <v>5557</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>0</v>
+        <v>43588</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6" t="n">
-        <v>5557</v>
-      </c>
-      <c r="G5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6" t="n">
-        <v>43588</v>
-      </c>
-      <c r="K5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="6" t="n">
         <v>49145</v>
       </c>
     </row>
@@ -1621,22 +1077,13 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C6" s="6" t="inlineStr"/>
-      <c r="D6" s="6" t="inlineStr"/>
-      <c r="E6" s="6" t="inlineStr"/>
-      <c r="F6" s="6" t="n">
+      <c r="C6" s="6" t="n">
         <v>2308</v>
       </c>
-      <c r="G6" s="6" t="inlineStr"/>
-      <c r="H6" s="6" t="inlineStr"/>
-      <c r="I6" s="6" t="inlineStr"/>
-      <c r="J6" s="6" t="n">
+      <c r="D6" s="6" t="n">
         <v>33114</v>
       </c>
-      <c r="K6" s="6" t="inlineStr"/>
-      <c r="L6" s="6" t="inlineStr"/>
-      <c r="M6" s="6" t="inlineStr"/>
-      <c r="N6" s="6" t="n">
+      <c r="E6" s="6" t="n">
         <v>38139</v>
       </c>
     </row>
@@ -1647,22 +1094,13 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C7" s="6" t="inlineStr"/>
-      <c r="D7" s="6" t="inlineStr"/>
-      <c r="E7" s="6" t="inlineStr"/>
-      <c r="F7" s="6" t="n">
+      <c r="C7" s="6" t="n">
         <v>11492</v>
       </c>
-      <c r="G7" s="6" t="inlineStr"/>
-      <c r="H7" s="6" t="inlineStr"/>
-      <c r="I7" s="6" t="inlineStr"/>
-      <c r="J7" s="6" t="n">
+      <c r="D7" s="6" t="n">
         <v>55419</v>
       </c>
-      <c r="K7" s="6" t="inlineStr"/>
-      <c r="L7" s="6" t="inlineStr"/>
-      <c r="M7" s="6" t="inlineStr"/>
-      <c r="N7" s="6" t="n">
+      <c r="E7" s="6" t="n">
         <v>62757</v>
       </c>
     </row>
@@ -1678,39 +1116,12 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="G8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="6" t="n">
-        <v>50</v>
-      </c>
-      <c r="K8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="6" t="n">
         <v>56</v>
       </c>
     </row>
@@ -1722,39 +1133,12 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0</v>
+        <v>4958</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0</v>
+        <v>32975</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6" t="n">
-        <v>4958</v>
-      </c>
-      <c r="G9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="6" t="n">
-        <v>32975</v>
-      </c>
-      <c r="K9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="6" t="n">
         <v>37933</v>
       </c>
     </row>
@@ -1765,22 +1149,13 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C10" s="6" t="inlineStr"/>
-      <c r="D10" s="6" t="inlineStr"/>
-      <c r="E10" s="6" t="inlineStr"/>
-      <c r="F10" s="6" t="n">
+      <c r="C10" s="6" t="n">
         <v>1760</v>
       </c>
-      <c r="G10" s="6" t="inlineStr"/>
-      <c r="H10" s="6" t="inlineStr"/>
-      <c r="I10" s="6" t="inlineStr"/>
-      <c r="J10" s="6" t="n">
+      <c r="D10" s="6" t="n">
         <v>25121</v>
       </c>
-      <c r="K10" s="6" t="inlineStr"/>
-      <c r="L10" s="6" t="inlineStr"/>
-      <c r="M10" s="6" t="inlineStr"/>
-      <c r="N10" s="6" t="n">
+      <c r="E10" s="6" t="n">
         <v>28207</v>
       </c>
     </row>
@@ -1791,22 +1166,13 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C11" s="6" t="inlineStr"/>
-      <c r="D11" s="6" t="inlineStr"/>
-      <c r="E11" s="6" t="inlineStr"/>
-      <c r="F11" s="6" t="n">
+      <c r="C11" s="6" t="n">
         <v>10325</v>
       </c>
-      <c r="G11" s="6" t="inlineStr"/>
-      <c r="H11" s="6" t="inlineStr"/>
-      <c r="I11" s="6" t="inlineStr"/>
-      <c r="J11" s="6" t="n">
+      <c r="D11" s="6" t="n">
         <v>42665</v>
       </c>
-      <c r="K11" s="6" t="inlineStr"/>
-      <c r="L11" s="6" t="inlineStr"/>
-      <c r="M11" s="6" t="inlineStr"/>
-      <c r="N11" s="6" t="n">
+      <c r="E11" s="6" t="n">
         <v>49619</v>
       </c>
     </row>
@@ -1822,39 +1188,12 @@
         </is>
       </c>
       <c r="C12" s="6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="G12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="K12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="6" t="n">
         <v>30</v>
       </c>
     </row>
@@ -1866,39 +1205,12 @@
         </is>
       </c>
       <c r="C13" s="6" t="n">
-        <v>0</v>
+        <v>2434</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0</v>
+        <v>17063</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="6" t="n">
-        <v>2434</v>
-      </c>
-      <c r="G13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="6" t="n">
-        <v>17063</v>
-      </c>
-      <c r="K13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="6" t="n">
         <v>19497</v>
       </c>
     </row>
@@ -1909,22 +1221,13 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="6" t="inlineStr"/>
-      <c r="D14" s="6" t="inlineStr"/>
-      <c r="E14" s="6" t="inlineStr"/>
-      <c r="F14" s="6" t="n">
+      <c r="C14" s="6" t="n">
         <v>777</v>
       </c>
-      <c r="G14" s="6" t="inlineStr"/>
-      <c r="H14" s="6" t="inlineStr"/>
-      <c r="I14" s="6" t="inlineStr"/>
-      <c r="J14" s="6" t="n">
+      <c r="D14" s="6" t="n">
         <v>11675</v>
       </c>
-      <c r="K14" s="6" t="inlineStr"/>
-      <c r="L14" s="6" t="inlineStr"/>
-      <c r="M14" s="6" t="inlineStr"/>
-      <c r="N14" s="6" t="n">
+      <c r="E14" s="6" t="n">
         <v>13288</v>
       </c>
     </row>
@@ -1935,22 +1238,13 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="6" t="inlineStr"/>
-      <c r="D15" s="6" t="inlineStr"/>
-      <c r="E15" s="6" t="inlineStr"/>
-      <c r="F15" s="6" t="n">
+      <c r="C15" s="6" t="n">
         <v>7253</v>
       </c>
-      <c r="G15" s="6" t="inlineStr"/>
-      <c r="H15" s="6" t="inlineStr"/>
-      <c r="I15" s="6" t="inlineStr"/>
-      <c r="J15" s="6" t="n">
+      <c r="D15" s="6" t="n">
         <v>24326</v>
       </c>
-      <c r="K15" s="6" t="inlineStr"/>
-      <c r="L15" s="6" t="inlineStr"/>
-      <c r="M15" s="6" t="inlineStr"/>
-      <c r="N15" s="6" t="n">
+      <c r="E15" s="6" t="n">
         <v>28116</v>
       </c>
     </row>
@@ -1966,39 +1260,12 @@
         </is>
       </c>
       <c r="C16" s="6" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="E16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="6" t="n">
-        <v>21</v>
-      </c>
-      <c r="G16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="6" t="n">
-        <v>119</v>
-      </c>
-      <c r="K16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="6" t="n">
         <v>140</v>
       </c>
     </row>
@@ -2010,39 +1277,12 @@
         </is>
       </c>
       <c r="C17" s="6" t="n">
-        <v>0</v>
+        <v>18150</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>0</v>
+        <v>74743</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="6" t="n">
-        <v>18150</v>
-      </c>
-      <c r="G17" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" s="6" t="n">
-        <v>74743</v>
-      </c>
-      <c r="K17" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="6" t="n">
         <v>92893</v>
       </c>
     </row>
@@ -2053,22 +1293,13 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C18" s="6" t="inlineStr"/>
-      <c r="D18" s="6" t="inlineStr"/>
-      <c r="E18" s="6" t="inlineStr"/>
-      <c r="F18" s="6" t="n">
+      <c r="C18" s="6" t="n">
         <v>11283</v>
       </c>
-      <c r="G18" s="6" t="inlineStr"/>
-      <c r="H18" s="6" t="inlineStr"/>
-      <c r="I18" s="6" t="inlineStr"/>
-      <c r="J18" s="6" t="n">
+      <c r="D18" s="6" t="n">
         <v>61491</v>
       </c>
-      <c r="K18" s="6" t="inlineStr"/>
-      <c r="L18" s="6" t="inlineStr"/>
-      <c r="M18" s="6" t="inlineStr"/>
-      <c r="N18" s="6" t="n">
+      <c r="E18" s="6" t="n">
         <v>77729</v>
       </c>
     </row>
@@ -2079,22 +1310,13 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C19" s="6" t="inlineStr"/>
-      <c r="D19" s="6" t="inlineStr"/>
-      <c r="E19" s="6" t="inlineStr"/>
-      <c r="F19" s="6" t="n">
+      <c r="C19" s="6" t="n">
         <v>28037</v>
       </c>
-      <c r="G19" s="6" t="inlineStr"/>
-      <c r="H19" s="6" t="inlineStr"/>
-      <c r="I19" s="6" t="inlineStr"/>
-      <c r="J19" s="6" t="n">
+      <c r="D19" s="6" t="n">
         <v>89940</v>
       </c>
-      <c r="K19" s="6" t="inlineStr"/>
-      <c r="L19" s="6" t="inlineStr"/>
-      <c r="M19" s="6" t="inlineStr"/>
-      <c r="N19" s="6" t="n">
+      <c r="E19" s="6" t="n">
         <v>110492</v>
       </c>
     </row>
@@ -2110,39 +1332,12 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="G20" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" s="6" t="n">
-        <v>126</v>
-      </c>
-      <c r="K20" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" s="6" t="n">
         <v>136</v>
       </c>
     </row>
@@ -2154,39 +1349,12 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0</v>
+        <v>9187</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0</v>
+        <v>74575</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="6" t="n">
-        <v>9187</v>
-      </c>
-      <c r="G21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="6" t="n">
-        <v>74575</v>
-      </c>
-      <c r="K21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" s="6" t="n">
         <v>83762</v>
       </c>
     </row>
@@ -2197,22 +1365,13 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C22" s="6" t="inlineStr"/>
-      <c r="D22" s="6" t="inlineStr"/>
-      <c r="E22" s="6" t="inlineStr"/>
-      <c r="F22" s="6" t="n">
+      <c r="C22" s="6" t="n">
         <v>4772</v>
       </c>
-      <c r="G22" s="6" t="inlineStr"/>
-      <c r="H22" s="6" t="inlineStr"/>
-      <c r="I22" s="6" t="inlineStr"/>
-      <c r="J22" s="6" t="n">
+      <c r="D22" s="6" t="n">
         <v>63067</v>
       </c>
-      <c r="K22" s="6" t="inlineStr"/>
-      <c r="L22" s="6" t="inlineStr"/>
-      <c r="M22" s="6" t="inlineStr"/>
-      <c r="N22" s="6" t="n">
+      <c r="E22" s="6" t="n">
         <v>70295</v>
       </c>
     </row>
@@ -2223,22 +1382,13 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C23" s="6" t="inlineStr"/>
-      <c r="D23" s="6" t="inlineStr"/>
-      <c r="E23" s="6" t="inlineStr"/>
-      <c r="F23" s="6" t="n">
+      <c r="C23" s="6" t="n">
         <v>17083</v>
       </c>
-      <c r="G23" s="6" t="inlineStr"/>
-      <c r="H23" s="6" t="inlineStr"/>
-      <c r="I23" s="6" t="inlineStr"/>
-      <c r="J23" s="6" t="n">
+      <c r="D23" s="6" t="n">
         <v>89298</v>
       </c>
-      <c r="K23" s="6" t="inlineStr"/>
-      <c r="L23" s="6" t="inlineStr"/>
-      <c r="M23" s="6" t="inlineStr"/>
-      <c r="N23" s="6" t="n">
+      <c r="E23" s="6" t="n">
         <v>98969</v>
       </c>
     </row>
@@ -2254,39 +1404,12 @@
         </is>
       </c>
       <c r="C24" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" s="6" t="n">
-        <v>88</v>
-      </c>
-      <c r="K24" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" s="6" t="n">
         <v>89</v>
       </c>
     </row>
@@ -2298,39 +1421,12 @@
         </is>
       </c>
       <c r="C25" s="6" t="n">
-        <v>0</v>
+        <v>3390</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>0</v>
+        <v>56634</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="6" t="n">
-        <v>3390</v>
-      </c>
-      <c r="G25" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" s="6" t="n">
-        <v>56634</v>
-      </c>
-      <c r="K25" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" s="6" t="n">
         <v>60025</v>
       </c>
     </row>
@@ -2341,22 +1437,13 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C26" s="6" t="inlineStr"/>
-      <c r="D26" s="6" t="inlineStr"/>
-      <c r="E26" s="6" t="inlineStr"/>
-      <c r="F26" s="6" t="n">
+      <c r="C26" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="G26" s="6" t="inlineStr"/>
-      <c r="H26" s="6" t="inlineStr"/>
-      <c r="I26" s="6" t="inlineStr"/>
-      <c r="J26" s="6" t="n">
+      <c r="D26" s="6" t="n">
         <v>45307</v>
       </c>
-      <c r="K26" s="6" t="inlineStr"/>
-      <c r="L26" s="6" t="inlineStr"/>
-      <c r="M26" s="6" t="inlineStr"/>
-      <c r="N26" s="6" t="n">
+      <c r="E26" s="6" t="n">
         <v>46478</v>
       </c>
     </row>
@@ -2367,22 +1454,13 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C27" s="6" t="inlineStr"/>
-      <c r="D27" s="6" t="inlineStr"/>
-      <c r="E27" s="6" t="inlineStr"/>
-      <c r="F27" s="6" t="n">
+      <c r="C27" s="6" t="n">
         <v>15606</v>
       </c>
-      <c r="G27" s="6" t="inlineStr"/>
-      <c r="H27" s="6" t="inlineStr"/>
-      <c r="I27" s="6" t="inlineStr"/>
-      <c r="J27" s="6" t="n">
+      <c r="D27" s="6" t="n">
         <v>72044</v>
       </c>
-      <c r="K27" s="6" t="inlineStr"/>
-      <c r="L27" s="6" t="inlineStr"/>
-      <c r="M27" s="6" t="inlineStr"/>
-      <c r="N27" s="6" t="n">
+      <c r="E27" s="6" t="n">
         <v>78892</v>
       </c>
     </row>
@@ -2398,39 +1476,12 @@
         </is>
       </c>
       <c r="C28" s="6" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="D28" s="6" t="n">
-        <v>0</v>
+        <v>473</v>
       </c>
       <c r="E28" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" s="6" t="n">
-        <v>48</v>
-      </c>
-      <c r="G28" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" s="6" t="n">
-        <v>473</v>
-      </c>
-      <c r="K28" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" s="6" t="n">
         <v>521</v>
       </c>
     </row>
@@ -2442,39 +1493,12 @@
         </is>
       </c>
       <c r="C29" s="6" t="n">
-        <v>0</v>
+        <v>43676</v>
       </c>
       <c r="D29" s="6" t="n">
-        <v>0</v>
+        <v>299578</v>
       </c>
       <c r="E29" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" s="6" t="n">
-        <v>43676</v>
-      </c>
-      <c r="G29" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" s="6" t="n">
-        <v>299578</v>
-      </c>
-      <c r="K29" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" s="6" t="n">
         <v>343255</v>
       </c>
     </row>
@@ -2485,22 +1509,13 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C30" s="6" t="inlineStr"/>
-      <c r="D30" s="6" t="inlineStr"/>
-      <c r="E30" s="6" t="inlineStr"/>
-      <c r="F30" s="6" t="n">
+      <c r="C30" s="6" t="n">
         <v>31555</v>
       </c>
-      <c r="G30" s="6" t="inlineStr"/>
-      <c r="H30" s="6" t="inlineStr"/>
-      <c r="I30" s="6" t="inlineStr"/>
-      <c r="J30" s="6" t="n">
+      <c r="D30" s="6" t="n">
         <v>270798</v>
       </c>
-      <c r="K30" s="6" t="inlineStr"/>
-      <c r="L30" s="6" t="inlineStr"/>
-      <c r="M30" s="6" t="inlineStr"/>
-      <c r="N30" s="6" t="n">
+      <c r="E30" s="6" t="n">
         <v>313130</v>
       </c>
     </row>
@@ -2511,22 +1526,13 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C31" s="6" t="inlineStr"/>
-      <c r="D31" s="6" t="inlineStr"/>
-      <c r="E31" s="6" t="inlineStr"/>
-      <c r="F31" s="6" t="n">
+      <c r="C31" s="6" t="n">
         <v>58835</v>
       </c>
-      <c r="G31" s="6" t="inlineStr"/>
-      <c r="H31" s="6" t="inlineStr"/>
-      <c r="I31" s="6" t="inlineStr"/>
-      <c r="J31" s="6" t="n">
+      <c r="D31" s="6" t="n">
         <v>328180</v>
       </c>
-      <c r="K31" s="6" t="inlineStr"/>
-      <c r="L31" s="6" t="inlineStr"/>
-      <c r="M31" s="6" t="inlineStr"/>
-      <c r="N31" s="6" t="n">
+      <c r="E31" s="6" t="n">
         <v>375984</v>
       </c>
     </row>
@@ -2538,16 +1544,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
